--- a/uploads/Customers.xlsx
+++ b/uploads/Customers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didem\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B0D0D-3EEA-4CA3-8FD4-B969C17E76B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8265CDF-0CB7-4963-8602-9AC5F4F95A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{0AFB74F1-DF26-495F-AC05-58EBA3EFEEF5}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{0AFB74F1-DF26-495F-AC05-58EBA3EFEEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>k1</t>
   </si>
   <si>
@@ -48,7 +45,10 @@
     <t>k3</t>
   </si>
   <si>
-    <t>_id</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -409,17 +409,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
